--- a/resources/test_data/NFH_service_Repayment_Mode.xlsx
+++ b/resources/test_data/NFH_service_Repayment_Mode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C833B898-23B6-4A66-A490-9B3D8A246087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0C8F4D-2782-499D-84BF-592106E05AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>username</t>
   </si>
@@ -47,9 +47,6 @@
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -125,21 +122,12 @@
     <t>activeInActive</t>
   </si>
   <si>
-    <t>C100</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>C101</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>404</t>
-  </si>
-  <si>
     <t>405</t>
   </si>
   <si>
@@ -155,12 +143,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>Service Request Change Mailing Address</t>
-  </si>
-  <si>
-    <t>2-Correspondence Address</t>
-  </si>
-  <si>
     <t>3-Present Address</t>
   </si>
   <si>
@@ -179,9 +161,6 @@
     <t>1-Office Address</t>
   </si>
   <si>
-    <t>Service_Repayment_Mode</t>
-  </si>
-  <si>
     <t>changeRepaymentMode</t>
   </si>
   <si>
@@ -228,6 +207,18 @@
   </si>
   <si>
     <t>77179</t>
+  </si>
+  <si>
+    <t>Service_Repayment_Mode_Cash</t>
+  </si>
+  <si>
+    <t>Service_Repayment_Mode_EFT</t>
+  </si>
+  <si>
+    <t>5-Cash</t>
+  </si>
+  <si>
+    <t>77235</t>
   </si>
 </sst>
 </file>
@@ -333,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -362,15 +353,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1131,7 +1113,7 @@
     <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30">
+    <row r="1" spans="1:28" ht="30">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1139,275 +1121,297 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="60">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="60">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="J2" s="2">
         <v>9852</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2">
         <v>1001</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="7">
+        <v>309</v>
+      </c>
+      <c r="V2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="7"/>
+    </row>
+    <row r="3" spans="1:28" ht="60">
+      <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="3">
-        <v>309</v>
-      </c>
-      <c r="V2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="13" t="s">
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="75">
-      <c r="A3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2">
-        <v>9853</v>
+        <v>9852</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L3" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="7">
+        <v>309</v>
+      </c>
+      <c r="V3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="7"/>
     </row>
-    <row r="4" spans="1:27" ht="75">
+    <row r="4" spans="1:28" ht="75">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2">
         <v>9854</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2">
         <v>1003</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
@@ -1423,54 +1427,54 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="60">
+    <row r="5" spans="1:28" ht="60">
       <c r="A5" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2">
         <v>9855</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2">
         <v>1004</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>
@@ -1486,16 +1490,16 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="H8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{5E7FDE9C-86B3-4C0E-BB83-E1D7B65068C1}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{9A0F69D2-518D-4578-81A1-6969521C6F0B}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{FF9BF181-1B4D-43AC-9BD7-334BF2EDB3E6}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{A101C941-E8A1-403D-BBA4-8DAFFA16FDDA}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{FF9BF181-1B4D-43AC-9BD7-334BF2EDB3E6}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{A101C941-E8A1-403D-BBA4-8DAFFA16FDDA}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{5DB570AC-D37D-4B77-BF9D-C90FBC7959AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/resources/test_data/NFH_service_Repayment_Mode.xlsx
+++ b/resources/test_data/NFH_service_Repayment_Mode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0C8F4D-2782-499D-84BF-592106E05AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17762393-F690-4E1E-8500-D7DAF7877E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>username</t>
   </si>
@@ -122,15 +122,6 @@
     <t>activeInActive</t>
   </si>
   <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
     <t>406</t>
   </si>
   <si>
@@ -143,18 +134,9 @@
     <t>4</t>
   </si>
   <si>
-    <t>3-Present Address</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>Service Request Change Present Address</t>
-  </si>
-  <si>
-    <t>Service Request Office Address</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -206,9 +188,6 @@
     <t>3-AUB Direct Deduction</t>
   </si>
   <si>
-    <t>77179</t>
-  </si>
-  <si>
     <t>Service_Repayment_Mode_Cash</t>
   </si>
   <si>
@@ -219,13 +198,43 @@
   </si>
   <si>
     <t>77235</t>
+  </si>
+  <si>
+    <t>Service_Repayment_Mode_PDC</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>PDCBank</t>
+  </si>
+  <si>
+    <t>depositAccountNumber</t>
+  </si>
+  <si>
+    <t>PDCStartDate</t>
+  </si>
+  <si>
+    <t>'25-12-2026</t>
+  </si>
+  <si>
+    <t>StartingPDCNo</t>
+  </si>
+  <si>
+    <t>PDCEndNo</t>
+  </si>
+  <si>
+    <t>noOfPDC</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +271,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
@@ -324,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -354,11 +370,129 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -789,33 +923,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AA5" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="D1:AA5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="username3" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="password" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{967B1CEC-1373-4B37-B605-9DD555121E42}" name="IdType" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="customerID" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="flatNo" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="buildingNo" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="nearestLandMark" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="roadNumber" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="blockCode" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="country" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="cityArea" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{BC19BD50-673D-4502-9682-AACFD2BB048F}" name="changeRepaymentMode" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{CFAEDB29-DC1D-42B0-A982-2A0927AB583B}" name="bank_Name_Code" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{FC2BA080-A5D0-45E7-A0CA-C7255E4F07B8}" name="bankAccountNumber" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{64F127BE-4631-41E8-A05C-B66D8BD307A9}" name="IBANNumber" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{F3FBE095-D12D-4BC9-8154-7BC2D97F1761}" name="monthlyInstallment" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{FEBD1276-4EB0-4B0C-BAA8-1C9B123083C0}" name="paymentFrequency" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{966E9FB1-E909-48F5-A8D4-90A6F5DE888C}" name="firstPaymentDate" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{F9DF07DF-BCB1-4902-BB34-AFB6306045B3}" name="lastPaymentDate" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{4FE61E7E-6EAC-4B5B-8D7D-3243CF4194D3}" name="maximumPaymentAmount" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{43FA4B20-F7D0-41CD-A343-E8ABD12FBC4F}" name="repayment_Mode" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AG5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="D1:AG5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
+  <tableColumns count="30">
+    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="username3" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="password" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{967B1CEC-1373-4B37-B605-9DD555121E42}" name="IdType" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="customerID" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="flatNo" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="buildingNo" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="nearestLandMark" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="roadNumber" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="blockCode" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="country" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="cityArea" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{BC19BD50-673D-4502-9682-AACFD2BB048F}" name="changeRepaymentMode" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{CFAEDB29-DC1D-42B0-A982-2A0927AB583B}" name="bank_Name_Code" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{FC2BA080-A5D0-45E7-A0CA-C7255E4F07B8}" name="bankAccountNumber" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{64F127BE-4631-41E8-A05C-B66D8BD307A9}" name="IBANNumber" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{F3FBE095-D12D-4BC9-8154-7BC2D97F1761}" name="monthlyInstallment" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{FEBD1276-4EB0-4B0C-BAA8-1C9B123083C0}" name="paymentFrequency" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{966E9FB1-E909-48F5-A8D4-90A6F5DE888C}" name="firstPaymentDate" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{F9DF07DF-BCB1-4902-BB34-AFB6306045B3}" name="lastPaymentDate" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{4FE61E7E-6EAC-4B5B-8D7D-3243CF4194D3}" name="maximumPaymentAmount" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{43FA4B20-F7D0-41CD-A343-E8ABD12FBC4F}" name="repayment_Mode" dataDxfId="6"/>
+    <tableColumn id="25" xr3:uid="{8264C54B-317A-40D1-BF93-0EB4131A5018}" name="PDCBank" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{83C08144-1D20-4E2B-A445-5B17F5359BD2}" name="depositAccountNumber" dataDxfId="4"/>
+    <tableColumn id="27" xr3:uid="{D0C4DF52-36C4-4F6E-8F03-0454C1C82B9B}" name="PDCStartDate" dataDxfId="3"/>
+    <tableColumn id="28" xr3:uid="{5427BBAD-6D51-4329-808D-870CFFACE408}" name="StartingPDCNo" dataDxfId="2"/>
+    <tableColumn id="29" xr3:uid="{CFA987B6-C0BC-49C2-92AD-20CCD9840C09}" name="noOfPDC" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{08EB3615-B092-4721-AD01-4EC24A263E06}" name="PDCEndNo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1084,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1104,6 +1244,7 @@
     <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -1111,9 +1252,10 @@
     <col min="23" max="24" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30">
+    <row r="1" spans="1:33" ht="30">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1166,39 +1308,57 @@
         <v>27</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>54</v>
+      <c r="AB1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="60">
+    <row r="2" spans="1:33" ht="60">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>3</v>
@@ -1216,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>8</v>
@@ -1243,19 +1403,19 @@
         <v>24</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="U2" s="7">
         <v>309</v>
@@ -1264,25 +1424,30 @@
         <v>1000</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="7">
         <v>1000000</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
     </row>
-    <row r="3" spans="1:28" ht="60">
+    <row r="3" spans="1:33" ht="60">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>3</v>
@@ -1300,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>8</v>
@@ -1327,7 +1492,7 @@
         <v>24</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
@@ -1336,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="U3" s="7">
         <v>309</v>
@@ -1348,30 +1513,35 @@
         <v>1000</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Z3" s="7">
         <v>1000000</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB3" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="75">
+    <row r="4" spans="1:33" ht="60">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1384,22 +1554,22 @@
         <v>5</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J4" s="2">
-        <v>9854</v>
+        <v>9852</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L4" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>18</v>
@@ -1408,28 +1578,64 @@
         <v>20</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
+      <c r="R4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="7">
+        <v>309</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>12334</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:28" ht="60">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
+    <row r="5" spans="1:33">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -1450,16 +1656,16 @@
         <v>10</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2">
         <v>9855</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>1004</v>
@@ -1471,10 +1677,10 @@
         <v>20</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>
@@ -1489,17 +1695,23 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:33">
       <c r="H8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{5E7FDE9C-86B3-4C0E-BB83-E1D7B65068C1}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{FF9BF181-1B4D-43AC-9BD7-334BF2EDB3E6}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{A101C941-E8A1-403D-BBA4-8DAFFA16FDDA}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{5DB570AC-D37D-4B77-BF9D-C90FBC7959AB}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{A101C941-E8A1-403D-BBA4-8DAFFA16FDDA}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{5DB570AC-D37D-4B77-BF9D-C90FBC7959AB}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{A7FCB73E-F3EF-4492-8447-FE14B6C55766}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/resources/test_data/NFH_service_Repayment_Mode.xlsx
+++ b/resources/test_data/NFH_service_Repayment_Mode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17762393-F690-4E1E-8500-D7DAF7877E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48965813-AA16-48B4-B4B0-C4C39D9FAC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/test_data/NFH_service_Repayment_Mode.xlsx
+++ b/resources/test_data/NFH_service_Repayment_Mode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48965813-AA16-48B4-B4B0-C4C39D9FAC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65FDAC9-D650-49C9-AB40-10FCBE288A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>username</t>
   </si>
@@ -185,9 +185,6 @@
     <t>repayment_Mode</t>
   </si>
   <si>
-    <t>3-AUB Direct Deduction</t>
-  </si>
-  <si>
     <t>Service_Repayment_Mode_Cash</t>
   </si>
   <si>
@@ -228,6 +225,24 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>grpName</t>
+  </si>
+  <si>
+    <t>assignUser</t>
+  </si>
+  <si>
+    <t>makerRemarks</t>
+  </si>
+  <si>
+    <t>SRVF</t>
+  </si>
+  <si>
+    <t>Change address</t>
+  </si>
+  <si>
+    <t>3-EFT</t>
   </si>
 </sst>
 </file>
@@ -378,7 +393,64 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -923,39 +995,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AG5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="D1:AG5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
-  <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="username3" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="password" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{967B1CEC-1373-4B37-B605-9DD555121E42}" name="IdType" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="customerID" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="flatNo" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="buildingNo" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="nearestLandMark" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="roadNumber" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="blockCode" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="country" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="cityArea" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{BC19BD50-673D-4502-9682-AACFD2BB048F}" name="changeRepaymentMode" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{CFAEDB29-DC1D-42B0-A982-2A0927AB583B}" name="bank_Name_Code" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{FC2BA080-A5D0-45E7-A0CA-C7255E4F07B8}" name="bankAccountNumber" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{64F127BE-4631-41E8-A05C-B66D8BD307A9}" name="IBANNumber" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{F3FBE095-D12D-4BC9-8154-7BC2D97F1761}" name="monthlyInstallment" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{FEBD1276-4EB0-4B0C-BAA8-1C9B123083C0}" name="paymentFrequency" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{966E9FB1-E909-48F5-A8D4-90A6F5DE888C}" name="firstPaymentDate" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{F9DF07DF-BCB1-4902-BB34-AFB6306045B3}" name="lastPaymentDate" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{4FE61E7E-6EAC-4B5B-8D7D-3243CF4194D3}" name="maximumPaymentAmount" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{43FA4B20-F7D0-41CD-A343-E8ABD12FBC4F}" name="repayment_Mode" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{8264C54B-317A-40D1-BF93-0EB4131A5018}" name="PDCBank" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{83C08144-1D20-4E2B-A445-5B17F5359BD2}" name="depositAccountNumber" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{D0C4DF52-36C4-4F6E-8F03-0454C1C82B9B}" name="PDCStartDate" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{5427BBAD-6D51-4329-808D-870CFFACE408}" name="StartingPDCNo" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{CFA987B6-C0BC-49C2-92AD-20CCD9840C09}" name="noOfPDC" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{08EB3615-B092-4721-AD01-4EC24A263E06}" name="PDCEndNo" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AJ5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="D1:AJ5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
+  <tableColumns count="33">
+    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="username3" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="password" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{967B1CEC-1373-4B37-B605-9DD555121E42}" name="IdType" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="customerID" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="flatNo" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="buildingNo" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="nearestLandMark" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="roadNumber" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="blockCode" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="country" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="cityArea" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{BC19BD50-673D-4502-9682-AACFD2BB048F}" name="changeRepaymentMode" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{CFAEDB29-DC1D-42B0-A982-2A0927AB583B}" name="bank_Name_Code" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{FC2BA080-A5D0-45E7-A0CA-C7255E4F07B8}" name="bankAccountNumber" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{64F127BE-4631-41E8-A05C-B66D8BD307A9}" name="IBANNumber" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{F3FBE095-D12D-4BC9-8154-7BC2D97F1761}" name="monthlyInstallment" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{FEBD1276-4EB0-4B0C-BAA8-1C9B123083C0}" name="paymentFrequency" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{966E9FB1-E909-48F5-A8D4-90A6F5DE888C}" name="firstPaymentDate" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{F9DF07DF-BCB1-4902-BB34-AFB6306045B3}" name="lastPaymentDate" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{4FE61E7E-6EAC-4B5B-8D7D-3243CF4194D3}" name="maximumPaymentAmount" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{43FA4B20-F7D0-41CD-A343-E8ABD12FBC4F}" name="repayment_Mode" dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{8264C54B-317A-40D1-BF93-0EB4131A5018}" name="PDCBank" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{83C08144-1D20-4E2B-A445-5B17F5359BD2}" name="depositAccountNumber" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{D0C4DF52-36C4-4F6E-8F03-0454C1C82B9B}" name="PDCStartDate" dataDxfId="6"/>
+    <tableColumn id="28" xr3:uid="{5427BBAD-6D51-4329-808D-870CFFACE408}" name="StartingPDCNo" dataDxfId="5"/>
+    <tableColumn id="29" xr3:uid="{CFA987B6-C0BC-49C2-92AD-20CCD9840C09}" name="noOfPDC" dataDxfId="4"/>
+    <tableColumn id="30" xr3:uid="{08EB3615-B092-4721-AD01-4EC24A263E06}" name="PDCEndNo" dataDxfId="3"/>
+    <tableColumn id="31" xr3:uid="{5D875A28-EABF-444D-8473-5E0D1624023D}" name="grpName" dataDxfId="2"/>
+    <tableColumn id="32" xr3:uid="{B63611DF-4D75-4411-B3AA-C51852479549}" name="assignUser" dataDxfId="1"/>
+    <tableColumn id="33" xr3:uid="{EA243FD8-E91E-4F23-88C3-767F845762A1}" name="makerRemarks" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1224,38 +1299,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="X2" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
+    <col min="10" max="10" width="22.54296875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30">
+    <row r="1" spans="1:36" ht="29">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1338,27 +1413,36 @@
         <v>48</v>
       </c>
       <c r="AB1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="AE1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>61</v>
+      <c r="AH1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="60">
+    <row r="2" spans="1:36" ht="58">
       <c r="A2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>3</v>
@@ -1376,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>8</v>
@@ -1436,7 +1520,7 @@
         <v>1000000</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="11"/>
       <c r="AC2" s="3"/>
@@ -1444,10 +1528,19 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
+      <c r="AH2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>93</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" ht="60">
+    <row r="3" spans="1:36" ht="58">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>3</v>
@@ -1465,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>8</v>
@@ -1525,7 +1618,7 @@
         <v>1000000</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB3" s="11"/>
       <c r="AC3" s="3"/>
@@ -1533,10 +1626,19 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
+      <c r="AH3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>93</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" ht="60">
+    <row r="4" spans="1:36" ht="58">
       <c r="A4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>3</v>
@@ -1554,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>8</v>
@@ -1587,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>44</v>
@@ -1602,7 +1704,7 @@
         <v>1000</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X4" s="7" t="s">
         <v>46</v>
@@ -1614,7 +1716,7 @@
         <v>1000000</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB4" s="7">
         <v>1</v>
@@ -1623,19 +1725,28 @@
         <v>12334</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF4" s="7">
         <v>3</v>
       </c>
       <c r="AG4" s="3"/>
+      <c r="AH4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>93</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:36">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -1701,8 +1812,11 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:36">
       <c r="H8" s="4"/>
     </row>
   </sheetData>

--- a/resources/test_data/NFH_service_Repayment_Mode.xlsx
+++ b/resources/test_data/NFH_service_Repayment_Mode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65FDAC9-D650-49C9-AB40-10FCBE288A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23F36CD-F47F-4F9A-BF6C-C59E241889CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>username</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Service_Repayment_Mode_EFT</t>
   </si>
   <si>
-    <t>5-Cash</t>
-  </si>
-  <si>
     <t>77235</t>
   </si>
   <si>
@@ -243,6 +240,12 @@
   </si>
   <si>
     <t>3-EFT</t>
+  </si>
+  <si>
+    <t>1-Post Dated Cheque</t>
+  </si>
+  <si>
+    <t>2-Promisory Note</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X2" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1413,31 +1416,31 @@
         <v>48</v>
       </c>
       <c r="AB1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="AE1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="AH1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="58">
@@ -1460,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>8</v>
@@ -1520,7 +1523,7 @@
         <v>1000000</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="11"/>
       <c r="AC2" s="3"/>
@@ -1529,13 +1532,13 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI2" s="3">
         <v>93</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="58">
@@ -1558,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>8</v>
@@ -1618,7 +1621,7 @@
         <v>1000000</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="AB3" s="11"/>
       <c r="AC3" s="3"/>
@@ -1627,18 +1630,18 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI3" s="3">
         <v>93</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="58">
       <c r="A4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>3</v>
@@ -1656,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>8</v>
@@ -1689,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>44</v>
@@ -1704,7 +1707,7 @@
         <v>1000</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X4" s="7" t="s">
         <v>46</v>
@@ -1716,7 +1719,7 @@
         <v>1000000</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="AB4" s="7">
         <v>1</v>
@@ -1725,29 +1728,27 @@
         <v>12334</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF4" s="7">
         <v>3</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI4" s="3">
         <v>93</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:36">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>

--- a/resources/test_data/NFH_service_Repayment_Mode.xlsx
+++ b/resources/test_data/NFH_service_Repayment_Mode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23F36CD-F47F-4F9A-BF6C-C59E241889CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B11EB67-C3DA-4F78-BD12-53919944D846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>username2</t>
   </si>
   <si>
-    <t>77177</t>
-  </si>
-  <si>
     <t>buildingNo</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>Service_Repayment_Mode_EFT</t>
   </si>
   <si>
-    <t>77235</t>
-  </si>
-  <si>
     <t>Service_Repayment_Mode_PDC</t>
   </si>
   <si>
@@ -246,6 +240,12 @@
   </si>
   <si>
     <t>2-Promisory Note</t>
+  </si>
+  <si>
+    <t>77369</t>
+  </si>
+  <si>
+    <t>77325</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1359,150 +1359,150 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="R1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AE1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="58">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>51</v>
+      <c r="G2" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2">
         <v>9852</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2">
         <v>1001</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="U2" s="7">
         <v>309</v>
@@ -1511,19 +1511,19 @@
         <v>1000</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Z2" s="7">
         <v>1000000</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="11"/>
       <c r="AC2" s="3"/>
@@ -1532,63 +1532,63 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AI2" s="3">
         <v>93</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="58">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>51</v>
+      <c r="G3" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="2">
         <v>9852</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="2">
         <v>1001</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
@@ -1597,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="U3" s="7">
         <v>309</v>
@@ -1609,19 +1609,19 @@
         <v>1000</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Z3" s="7">
         <v>1000000</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB3" s="11"/>
       <c r="AC3" s="3"/>
@@ -1630,75 +1630,75 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AI3" s="3">
         <v>93</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="58">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>51</v>
+      <c r="G4" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="2">
         <v>9852</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2">
         <v>1001</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="U4" s="7">
         <v>309</v>
@@ -1707,19 +1707,19 @@
         <v>1000</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Z4" s="7">
         <v>1000000</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AB4" s="7">
         <v>1</v>
@@ -1728,23 +1728,23 @@
         <v>12334</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF4" s="7">
         <v>3</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AI4" s="3">
         <v>93</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1753,46 +1753,46 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>10</v>
+      <c r="G5" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J5" s="2">
         <v>9855</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2">
         <v>1004</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>
